--- a/config_hlw/fishing3d_kpshb_config.xlsx
+++ b/config_hlw/fishing3d_kpshb_config.xlsx
@@ -117,13 +117,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>actp_own_task_p_kpshb_nor</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_kpshb_nor</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>key|权限</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -200,6 +193,14 @@
   </si>
   <si>
     <t>50,150,600</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_ljyjcfk_hlw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_ljyjcfk_hlw</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -676,10 +677,10 @@
   <dimension ref="A1:P94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -724,10 +725,10 @@
         <v>22</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -759,13 +760,13 @@
         <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -779,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>11</v>
@@ -790,14 +791,14 @@
       <c r="G3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
+      <c r="H3" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1800,13 +1801,13 @@
         <v>14</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1838,13 +1839,13 @@
         <v>16</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1870,13 +1871,13 @@
         <v>17</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1902,13 +1903,13 @@
         <v>18</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1934,13 +1935,13 @@
         <v>19</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1966,13 +1967,13 @@
         <v>20</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1998,13 +1999,13 @@
         <v>21</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2966,30 +2967,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -3006,10 +2989,28 @@
 </comments>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3021,13 +3022,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -3039,13 +3040,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_hlw/fishing3d_kpshb_config.xlsx
+++ b/config_hlw/fishing3d_kpshb_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>id|行号，从1开始，连续就行</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>5,15,60</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>jd|进度值</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -85,10 +81,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1;3;5#5;10;15#40;50;60</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>10;30;50#50;100;150#400;500;600</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -171,36 +163,35 @@
     <t>"jing_bi","shop_gold_sum","shop_gold_sum","jing_bi","shop_gold_sum","shop_gold_sum","jing_bi","shop_gold_sum","shop_gold_sum"</t>
   </si>
   <si>
-    <t>1,3,5,5,10,15,40,50,60</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,30,50,50,100,150,400,500,600</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,150,600</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_own_task_p_ljyjcfk_hlw</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>actp_own_task_p_ljyjcfk_hlw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05,0.15,0.6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,1.5,6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.01;0.03;0.05#0.05;0.1;0.15#0.4;0.5;0.6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1;0.3;0.5#0.5;1;1.5#4;5;6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.01,0.03,0.05,0.05,0.1,0.15,0.4,0.5,0.6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,0.3,0.5,0.5,1,1.5,4,5,6</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +318,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -389,9 +380,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -677,22 +665,23 @@
   <dimension ref="A1:P94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.75" customWidth="1"/>
-    <col min="7" max="7" width="96.25" customWidth="1"/>
-    <col min="8" max="8" width="50" customWidth="1"/>
-    <col min="9" max="9" width="53.875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.125" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="129.25" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="18.625" customWidth="1"/>
@@ -713,22 +702,22 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -741,64 +730,64 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="21">
         <v>21843</v>
       </c>
       <c r="C2" s="8">
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>21844</v>
       </c>
       <c r="C3" s="8">
         <v>3</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1760,7 +1749,7 @@
   <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1792,22 +1781,22 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1827,25 +1816,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>600</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1859,25 +1848,25 @@
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1">
         <v>6000</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1891,25 +1880,25 @@
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="5">
         <v>60000</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1923,25 +1912,25 @@
         <v>1</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1">
         <v>600</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1955,25 +1944,25 @@
         <v>2</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1">
         <v>6000</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1987,25 +1976,25 @@
         <v>3</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="5">
         <v>60000</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2967,12 +2956,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -2989,7 +2972,37 @@
 </comments>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2997,62 +3010,38 @@
 </settings>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_hlw/fishing3d_kpshb_config.xlsx
+++ b/config_hlw/fishing3d_kpshb_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>id|行号，从1开始，连续就行</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -192,6 +192,10 @@
   </si>
   <si>
     <t>0.1,0.3,0.5,0.5,1,1.5,4,5,6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>show_hb|大厅展示红包</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +672,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -705,7 +709,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>13</v>
@@ -743,7 +747,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>39</v>
@@ -2956,6 +2960,36 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -2972,36 +3006,6 @@
 </comments>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
@@ -3011,13 +3015,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -3029,13 +3033,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
